--- a/python_env/select group parts/8331-parts.xlsx
+++ b/python_env/select group parts/8331-parts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dncob\Documents\GitHub\Open-Bassoon\specification\select group parts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dncob\Documents\GitHub\Open-Bassoon\python_env\select group parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E754671B-37C4-4B21-B982-B5FE201326E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE78568E-1A38-4EFE-A4B4-FAD31A6B29E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wing" sheetId="1" r:id="rId1"/>
@@ -357,17 +357,17 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -548,17 +548,17 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -698,10 +698,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -834,25 +834,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="B2">
-        <v>0.79500000000000004</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -865,25 +865,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="B2">
-        <v>0.82599999999999996</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -896,17 +896,17 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1135,17 +1135,17 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
